--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6217,6 +6217,3524 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>000-000-381</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SHEFFIELD, AL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Colbert County</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>07/30/1968</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DEAL IN GASOLINE &amp; OTHER PETROLEUM PRODUCTS</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Akin Oil, Inc.</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>000-000-001</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>01/04/1966</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BAIL BONDS, ETC</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>$1,000</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>$1,000</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>A Bonding, Inc.</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>000-000-382</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>11/02/1964</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>DEAL IN DRUGS, CHEMICALS, MEDICINES</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>$20,000</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>$1,000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>The Aknell Corporation</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>000-000-002</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>HUNTSVILLE, AL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Madison County</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>04/17/1959</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DEAL IN REAL &amp; PERSONAL PROPERTY</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Frank Dawson Realty Co., Inc.</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>10/03/1986</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>000-000-003</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MONTGOMERY, AL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>03/17/1971</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>CONTRACTOR, REPAIR FENCES, ETC.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>$7,000</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>A-1 Hurricane Fence Industries of Montgomery, Inc.</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>000-000-383</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4100 OLD MONTGOMERY HIGHWAY
+HOMEWOOD, AL 35209</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4100 OLD MONTGOMERY HIGHWAY
+HOMEWOOD, AL 35209</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>11/03/1966</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>C T CORPORATION SYSTEM</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2 NORTH JACKSON ST., SUITE 605
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2 NORTH JACKSON ST., SUITE 605
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DATA PROCESSING ETC</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Media Services, Inc.</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>12/01/2017</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>000-000-004</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Domestic Non-Profit Corporation</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TALLADEGA, AL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Talladega County</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>01/10/1985</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>JENKINS, ANN</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>206 TINNEY STREET
+TALLADEGA, AL 35160</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>CHARITABLE, RELIGIOUS PURPOSES</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>East Alabama Children's Trust Fund Council</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>000-000-384</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Calhoun County</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>01/18/2011</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>BOWDEN, RANDY</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>212 EASTLAND HILLS
+LINCOLN, AL 35096</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>212 EASTLAND HILLS
+LINCOLN, AL 35096</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>CONSTRUCTION/CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Randy Bowden Construction LLC</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>000-000-005</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>AUBURN, AL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Lee County</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>01/01/1969</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>EQUIPMENT RENTALS</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>$30,000</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>$30,000</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>A-O Rents, Inc.</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>000-000-385</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>01/30/1968</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DEAL IN POWER LAWN &amp; GARDEN EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Alabama Air Cooled Motors, Inc.</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>000-000-386</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FAIRHOPE, AL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Baldwin County</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>05/09/1967</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DEAL IN AIRCRAFT</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>$40,000</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>$30,000</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Alabama Aircraft, Inc.</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>000-000-387</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Lee County</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>01/20/2011</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>THOMAS, TRESSY J</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1627 OPELIKA ROAD SUITE 114
+AUBURN, AL 36830</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>755 OAKDALE DRIVE
+AUBURN, AL 36830</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>OPERATE A HAIR SALON</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Hair Palace, LLC</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>000-000-388</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Pike County</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>01/14/2011</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>SMITH, JEFFREY W</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>60 COMMERCE STREET SUITE 1400
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>5962 GREENVILLE HWY
+LUVERNE, AL 36049</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>CONTRUCT/MAINTAIN/SERVICE PIPELINES</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>C &amp; A Construction Services, LLC</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>08/22/2013</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>000-000-389</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>05/30/1963</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CORPORATION SERVICE COMPANY, INC.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>641 SOUTH LAWRENCE STREET
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>641 SOUTH LAWRENCE STREET
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SELL/FABRICATE/FIT/SERVICE ARTIFICIAL LIMBS &amp; RELATED</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>$2,200</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>$1,510</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Alabama Artificial Limb &amp; Orthopedic Service, Inc.</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>000-000-190</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Mobile County</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>01/20/2011</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>SALTER, KENNETH</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>5375 LAURENDINE RD
+THEODORE, AL 36582</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>5375 LAURENDINE RD
+THEODORE, AL 36582</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ANY LAWFUL ACTIVITY</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Fuel Energy Corporation</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>000-000-481</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ECLECTIC, AL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Elmore County</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>03/23/1971</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PRINTERS, ENGRAVERS, PUBLISHERS, ETC.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>$28,001</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>$28,001</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Alabama Farmer Magazine, Inc.</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>000-000-191</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MOBILE, AL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Mobile County</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>05/15/1961</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>REAL ESTATE</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Acco, Inc.</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>000-000-482</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Morgan County</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>11/09/1936</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CORPORATION SERVICE COMPANY INC.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>641 SOUTH LAWRENCE STREET
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>641 SOUTH LAWRENCE STREET
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>FARM SUPPLIES/EQUIPMENT HORTICULTURE/AQUACULTURE</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>510,000@$100 PV</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>$10,340</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Alabama Farmers Cooperative, Inc.</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>000-000-192</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Baldwin County</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>01/18/2011</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>LANE, GEOFFREY A</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>32128 BROKEN BRANCH CIRCLE
+SPANISH FORT, AL 36527</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>32128 BROKEN BRANCH CIRCLE
+SPANISH FORT, AL 36527</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>REAL ESTATE</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>5,000 @ $1 PV</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>$1,000</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Stonehenge Homes, Inc.</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>12/19/2014</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>000-000-483</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>TUSCALOOSA, AL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Merged</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tuscaloosa County</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>04/01/1958</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>BUY, SELL GRAIN, GRAIN PRODUCTS, ETC.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>$30,000</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Alabama Feed Mills, Inc.</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>11/26/1991</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>MONARCH FEED MILLS, INC. Non-Qualified Foreign - Missouri</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>000-000-398</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>01/19/2011</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NORTHWEST REGISTERED AGENT SERICE IN</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>212 W. TROY STREET, STE B
+DOTHAN, AL 36303</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>212 W. TROY STREET, STE B
+DOTHAN, AL 36303</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ASSET MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Alabama Tveit, LLC</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>05/10/2012</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>000-000-193</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Baldwin County</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>01/18/2011</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>STEELE, JASON C</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>157 MONTCLAIR LOOP
+DAPHNE, AL 36526</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>157 MONTCLAIR LOOP
+DAPHNE, AL 36526</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>CONSTRUCTION/CONTRACTOR SERVICES</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>SteelHead Construction Inc.</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>000-000-399</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>01/19/2011</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>BUSINESS FILINGS INCORPORATED</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2 NO JACKSON ST SUITE 605
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2 NO JACKSON ST SUITE 605
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ALL LAWFUL BUSINESS</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>The Language and Learning Foundation for Children, L.L.C.</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>01/25/2017</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>000-000-484</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CULLMAN, AL</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Cullman County</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>02/28/1969</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>HATCHERS</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Alabama Feed Service, Inc.</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>09/06/1991</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>000-000-400</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>01/20/2011</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>DAHLE, ARTHUR</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2233 MOUNTAIN CREEK TRAIL
+HOOVER, AL 35226</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2233 MOUNTAIN CREEK TRAIL
+HOOVER, AL 35226</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>MANAGE RENTAL PROPERTY</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Art Dahle Enterprises LLC</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>000-000-194</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GADSDEN, AL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Etowah County</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>10/24/1969</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>TAX PREPARATION</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Accounting Systems International, Inc.</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>000-000-195</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Marshall County</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>01/20/2011</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>COURINGTON, JEANNIE F</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>105 EAGLE DR
+ALBERTVILLE, AL 35951</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>105 EAGLE DR
+ALBERTVILLE, AL 35951</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>DEAL WITH RESTAURANTS/CAFES/COFFEE SHOPS/BAKERIES</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>5,000 @ $1 PV</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>TNS, INC.</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>04/16/2019</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>000-000-401</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>01/20/2011</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>PEREZ, MIGUEL A</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>605 BELL AVE
+BIRMINGHAM, AL 35217</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>605 BELL AVE
+BIRMINGHAM, AL 35217</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>NOT PROVIDED</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>All Precision Heating &amp; Cooling, LLC</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>000-000-485</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Winston County</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>01/18/2011</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>WHEELER, BARRY</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>216 ARLEY BYPASS
+ARLEY, AL 35541</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>216 ARLEY BYPASS
+ARLEY, AL 35541</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>ANY LAWFUL ACTIVITY</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Arley Recycling LLC</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>09/18/2017</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>000-000-091</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Domestic Non-Profit Corporation</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>02/15/1985</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>CULVERHOUSE, JAMES S JR</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2029 CARRAWAY DRIVE
+BIRMINGHAM, AL 35235</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>MAINTAIN WILLOW TREE III CONDOMINIUM</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Willow Tree III Condominium Owners Association, Inc.</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>000-000-196</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Lee County</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>01/20/2011</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>BADMAEV, BUCK-ADAM</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>29 DUKE DRIVE
+FORT MITCHELL, AL 36856</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PO BOX 140
+FORT MITCHELL, AL 36856</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>PUBLISHING BUSINESS</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Bayed Solid, Inc.</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>08/20/2015</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>000-000-402</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>01/19/2011</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>WEBSTER, BRUCE C</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1000 URBAN CENTER DRIVE SUITE 350
+BIRMINGHAM, AL 35242</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>1000 URBAN CENTER DRIVE SUITE 350
+BIRMINGHAM, AL 35242</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>ESD Children's Share, LLC</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>000-000-486</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MONTGOMERY, AL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>11/22/1971</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>FERTILIZER</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>$50,000</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>$16,000</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Alabama Fertilizer Corporation</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>000-000-403</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>TUSCALOOSA, AL</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Tuscaloosa County</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>07/11/1968</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>REAL ESTATE</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>$100,000</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>$3,500</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Alabama Basic Land Enterprises, Incorporated</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>09/29/1989</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>000-000-197</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>01/19/2011</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>HAMPTON, LAFREDRICK J</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1264 AUDUBON RD
+MONTGOMERY, AL 36111</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>1264 AUDUBON RD
+MONTGOMERY, AL 36111</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>TRANSPORTATION OF GOODS</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Jamira Enterprise Inc.</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>000-000-092</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>JACKSONVILLE, AL</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Calhoun County</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>10/07/1971</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>TRAILER PARK</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>A. D. &amp; G. Trailer Park, Incorporated</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>000-000-404</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MONTGOMERY, AL</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Montgomery County</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>03/29/1972</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>DEAL IN BEARINGS, TRANSMISSION EQUIP, ETC.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>$1,000</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>$1,000</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Alabama Bearings Company, Inc.</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>03/31/1987</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>000-000-198</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>04/13/1961</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>MINOR HOME REPAIRS, ETC.</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Ace Fence Company</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>000-000-093</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NOT GIVEN
+NOT GIVEN, AL</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NOT GIVEN
+NOT GIVEN, AL</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Tuscaloosa County</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>11/24/2010</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>BECK, STEPHEN F</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>3800 JOE MALLISHAM PARKWAY
+TUSCALOOSA, AL 35401</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>3800 JOE MALLISHAM PARKWAY
+TUSCALOOSA, AL 35401</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>OPERATE DELICATESSENS IN CONVENIENCE STORES IN TUSCALOOSA COUNTY</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>1,000 @ $1 PV</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>FAST N EZ CHICKEN, INC.</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>000-000-405</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Domestic Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Houston County</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>01/12/2011</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>DOVE, S E</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>#5 FOXCHASE DR
+DOTHAN, AL 36305</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>#5 FOXCHASE DR
+DOTHAN, AL 36305</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>ANY LAWFUL ACTIVITY</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>ADS Holdings, LLC</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>05/20/2015</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>000-000-094</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Tuscaloosa County</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>11/23/2010</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>HINSON, RICHARD</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>20714 HIGHWAY 11 NORTH
+WOODSTOCK, AL 35188</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>20714 HIGHWAY 11 NORTH
+WOODSTOCK, AL 35188</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>SELL/RENT/SERVICE STORAGE BUILDINGS/CAMPERS/CARPORTS</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>1,000 @ $1 PV</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>CABINS AND COVERS, INC.</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>000-000-406</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>05/03/1971</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CT CORPORATION SYSTEM</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2 N JACKSON ST STE 605
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2 N JACKSON ST STE 605
+MONTGOMERY, AL 36104</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>ANY LAWFUL ACTIVITY</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>$20,000</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>$10,000</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Alabama Bedding Mfg. Co., Inc.</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>000-000-095</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>GLENCOE, AL</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Etowah County</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>01/04/1971</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>HARDWARE &amp; CONSTRUCT</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>$5,000</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>A &amp; E Hardware and Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>08/31/2011</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>000-000-096</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM, AL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>06/01/1965</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>ELECTRIC MOTOR REPAIR</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>$4,000</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>$2,000</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>A &amp; F Electric Co., Inc.</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>02/03/2016</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>000-000-421</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>RED LEVEL, AL</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Dissolved</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Covington County</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>05/03/1963</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Not Provided</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>CASKET DEALER &amp; AGEN</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>$25,000</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>$18,400</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Alabama Casket Company, Inc.</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>10/30/1992</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>000-000-090</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Domestic Corporation</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NOT GIVEN
+NOT GIVEN, AL</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NOT GIVEN
+NOT GIVEN, AL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Exists</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Jefferson County</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>11/22/2010</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>JONES, LAWANDA</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>313 GADSDEN HIGHWAY
+BIRMINGHAM, AL 35206</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>313 GADSDEN HIGHWAY
+BIRMINGHAM, AL 35206</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>JANITORIAL &amp; REMODELING SERVICES</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Jones L. Inc.</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>000000006</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>No matches found.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
